--- a/Samples.xlsx
+++ b/Samples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\diwalke\LC\Run_Lists\Sequence_Generator_July25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9287C0E1-243C-4EB5-B64A-38FF42181C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD51F633-67CC-4202-A13B-B6003AB3E67B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Samples.xlsx
+++ b/Samples.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Samples" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2449" uniqueCount="2449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="2452">
   <si>
     <t>Matrix_ID</t>
   </si>
@@ -7360,6 +7360,15 @@
   </si>
   <si>
     <t xml:space="preserve">1749601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLU_05_250804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLU_01_250804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLUTEST_02_250804</t>
   </si>
 </sst>
 </file>
@@ -7779,7 +7788,9 @@
       <c r="D4" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E4"/>
+      <c r="E4" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
@@ -7794,7 +7805,9 @@
       <c r="D5" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E5"/>
+      <c r="E5" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
@@ -7929,7 +7942,9 @@
       <c r="D14" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E14"/>
+      <c r="E14" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="3" t="s">
@@ -7944,7 +7959,9 @@
       <c r="D15" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E15"/>
+      <c r="E15" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="3" t="s">
@@ -8079,7 +8096,9 @@
       <c r="D24" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E24"/>
+      <c r="E24" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="3" t="s">
@@ -8094,7 +8113,9 @@
       <c r="D25" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E25"/>
+      <c r="E25" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="3" t="s">
@@ -8229,7 +8250,9 @@
       <c r="D34" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E34"/>
+      <c r="E34" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="3" t="s">
@@ -8244,7 +8267,9 @@
       <c r="D35" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E35"/>
+      <c r="E35" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="3" t="s">
@@ -8379,7 +8404,9 @@
       <c r="D44" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E44"/>
+      <c r="E44" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="3" t="s">
@@ -8394,7 +8421,9 @@
       <c r="D45" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E45"/>
+      <c r="E45" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="3" t="s">
@@ -8529,7 +8558,9 @@
       <c r="D54" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E54"/>
+      <c r="E54" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="3" t="s">
@@ -8544,7 +8575,9 @@
       <c r="D55" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E55"/>
+      <c r="E55" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="3" t="s">
@@ -8679,7 +8712,9 @@
       <c r="D64" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E64"/>
+      <c r="E64" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="3" t="s">
@@ -8694,7 +8729,9 @@
       <c r="D65" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E65"/>
+      <c r="E65" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="3" t="s">
@@ -8829,7 +8866,9 @@
       <c r="D74" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E74"/>
+      <c r="E74" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="3" t="s">
@@ -8844,7 +8883,9 @@
       <c r="D75" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E75"/>
+      <c r="E75" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="3" t="s">
@@ -8979,7 +9020,9 @@
       <c r="D84" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E84"/>
+      <c r="E84" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="3" t="s">
@@ -8994,7 +9037,9 @@
       <c r="D85" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E85"/>
+      <c r="E85" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="3" t="s">
@@ -9129,7 +9174,9 @@
       <c r="D94" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E94"/>
+      <c r="E94" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="3" t="s">
@@ -9144,7 +9191,9 @@
       <c r="D95" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E95"/>
+      <c r="E95" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="3" t="s">
@@ -9279,7 +9328,9 @@
       <c r="D104" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E104"/>
+      <c r="E104" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="3" t="s">
@@ -9294,7 +9345,9 @@
       <c r="D105" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E105"/>
+      <c r="E105" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="3" t="s">
@@ -9429,7 +9482,9 @@
       <c r="D114" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E114"/>
+      <c r="E114" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="3" t="s">
@@ -9444,7 +9499,9 @@
       <c r="D115" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E115"/>
+      <c r="E115" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="3" t="s">
@@ -9579,7 +9636,9 @@
       <c r="D124" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E124"/>
+      <c r="E124" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="3" t="s">
@@ -9594,7 +9653,9 @@
       <c r="D125" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E125"/>
+      <c r="E125" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="3" t="s">
@@ -9729,7 +9790,9 @@
       <c r="D134" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E134"/>
+      <c r="E134" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="3" t="s">
@@ -9744,7 +9807,9 @@
       <c r="D135" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E135"/>
+      <c r="E135" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="3" t="s">
@@ -9879,7 +9944,9 @@
       <c r="D144" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E144"/>
+      <c r="E144" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="3" t="s">
@@ -9894,7 +9961,9 @@
       <c r="D145" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E145"/>
+      <c r="E145" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="3" t="s">
@@ -10029,7 +10098,9 @@
       <c r="D154" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E154"/>
+      <c r="E154" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="3" t="s">
@@ -10044,7 +10115,9 @@
       <c r="D155" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E155"/>
+      <c r="E155" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="3" t="s">
@@ -10179,7 +10252,9 @@
       <c r="D164" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E164"/>
+      <c r="E164" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="3" t="s">
@@ -10194,7 +10269,9 @@
       <c r="D165" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E165"/>
+      <c r="E165" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="3" t="s">
@@ -10329,7 +10406,9 @@
       <c r="D174" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E174"/>
+      <c r="E174" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="3" t="s">
@@ -10344,7 +10423,9 @@
       <c r="D175" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E175"/>
+      <c r="E175" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="3" t="s">
@@ -10479,7 +10560,9 @@
       <c r="D184" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E184"/>
+      <c r="E184" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="3" t="s">
@@ -10494,7 +10577,9 @@
       <c r="D185" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E185"/>
+      <c r="E185" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="3" t="s">
@@ -10629,7 +10714,9 @@
       <c r="D194" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E194"/>
+      <c r="E194" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="3" t="s">
@@ -10644,7 +10731,9 @@
       <c r="D195" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E195"/>
+      <c r="E195" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="3" t="s">
@@ -10779,7 +10868,9 @@
       <c r="D204" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E204"/>
+      <c r="E204" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="3" t="s">
@@ -10794,7 +10885,9 @@
       <c r="D205" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E205"/>
+      <c r="E205" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="3" t="s">
@@ -10929,7 +11022,9 @@
       <c r="D214" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E214"/>
+      <c r="E214" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="3" t="s">
@@ -10944,7 +11039,9 @@
       <c r="D215" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E215"/>
+      <c r="E215" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="3" t="s">
@@ -11079,7 +11176,9 @@
       <c r="D224" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E224"/>
+      <c r="E224" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="225" ht="15.75" customHeight="1">
       <c r="A225" s="3" t="s">
@@ -11094,7 +11193,9 @@
       <c r="D225" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E225"/>
+      <c r="E225" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="226" ht="15.75" customHeight="1">
       <c r="A226" s="3" t="s">
@@ -11229,7 +11330,9 @@
       <c r="D234" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E234"/>
+      <c r="E234" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="235" ht="15.75" customHeight="1">
       <c r="A235" s="3" t="s">
@@ -11244,7 +11347,9 @@
       <c r="D235" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E235"/>
+      <c r="E235" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="236" ht="15.75" customHeight="1">
       <c r="A236" s="3" t="s">
@@ -11379,7 +11484,9 @@
       <c r="D244" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E244"/>
+      <c r="E244" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="245" ht="15.75" customHeight="1">
       <c r="A245" s="3" t="s">
@@ -11394,7 +11501,9 @@
       <c r="D245" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E245"/>
+      <c r="E245" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="246" ht="15.75" customHeight="1">
       <c r="A246" s="3" t="s">
@@ -11529,7 +11638,9 @@
       <c r="D254" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E254"/>
+      <c r="E254" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="255" ht="15.75" customHeight="1">
       <c r="A255" s="3" t="s">
@@ -11544,7 +11655,9 @@
       <c r="D255" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E255"/>
+      <c r="E255" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="256" ht="15.75" customHeight="1">
       <c r="A256" s="3" t="s">
@@ -11679,7 +11792,9 @@
       <c r="D264" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E264"/>
+      <c r="E264" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="265" ht="15.75" customHeight="1">
       <c r="A265" s="3" t="s">
@@ -11694,7 +11809,9 @@
       <c r="D265" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E265"/>
+      <c r="E265" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="266" ht="15.75" customHeight="1">
       <c r="A266" s="3" t="s">
@@ -11829,7 +11946,9 @@
       <c r="D274" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E274"/>
+      <c r="E274" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="275" ht="15.75" customHeight="1">
       <c r="A275" s="3" t="s">
@@ -11844,7 +11963,9 @@
       <c r="D275" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E275"/>
+      <c r="E275" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="276" ht="15.75" customHeight="1">
       <c r="A276" s="3" t="s">
@@ -11979,7 +12100,9 @@
       <c r="D284" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E284"/>
+      <c r="E284" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="285" ht="15.75" customHeight="1">
       <c r="A285" s="3" t="s">
@@ -11994,7 +12117,9 @@
       <c r="D285" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E285"/>
+      <c r="E285" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="286" ht="15.75" customHeight="1">
       <c r="A286" s="3" t="s">
@@ -12129,7 +12254,9 @@
       <c r="D294" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E294"/>
+      <c r="E294" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="295" ht="15.75" customHeight="1">
       <c r="A295" s="3" t="s">
@@ -12144,7 +12271,9 @@
       <c r="D295" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E295"/>
+      <c r="E295" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="296" ht="15.75" customHeight="1">
       <c r="A296" s="3" t="s">
@@ -12279,7 +12408,9 @@
       <c r="D304" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E304"/>
+      <c r="E304" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="305" ht="15.75" customHeight="1">
       <c r="A305" s="3" t="s">
@@ -12294,7 +12425,9 @@
       <c r="D305" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E305"/>
+      <c r="E305" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="306" ht="15.75" customHeight="1">
       <c r="A306" s="3" t="s">
@@ -12429,7 +12562,9 @@
       <c r="D314" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E314"/>
+      <c r="E314" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="315" ht="15.75" customHeight="1">
       <c r="A315" s="3" t="s">
@@ -12444,7 +12579,9 @@
       <c r="D315" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E315"/>
+      <c r="E315" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="316" ht="15.75" customHeight="1">
       <c r="A316" s="3" t="s">
@@ -12579,7 +12716,9 @@
       <c r="D324" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E324"/>
+      <c r="E324" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="325" ht="15.75" customHeight="1">
       <c r="A325" s="3" t="s">
@@ -12594,7 +12733,9 @@
       <c r="D325" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E325"/>
+      <c r="E325" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="326" ht="15.75" customHeight="1">
       <c r="A326" s="3" t="s">
@@ -12729,7 +12870,9 @@
       <c r="D334" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E334"/>
+      <c r="E334" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="335" ht="15.75" customHeight="1">
       <c r="A335" s="3" t="s">
@@ -12744,7 +12887,9 @@
       <c r="D335" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E335"/>
+      <c r="E335" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="336" ht="15.75" customHeight="1">
       <c r="A336" s="3" t="s">
@@ -12879,7 +13024,9 @@
       <c r="D344" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E344"/>
+      <c r="E344" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="345" ht="15.75" customHeight="1">
       <c r="A345" s="3" t="s">
@@ -12894,7 +13041,9 @@
       <c r="D345" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E345"/>
+      <c r="E345" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="346" ht="15.75" customHeight="1">
       <c r="A346" s="3" t="s">
@@ -13029,7 +13178,9 @@
       <c r="D354" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E354"/>
+      <c r="E354" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="355" ht="15.75" customHeight="1">
       <c r="A355" s="3" t="s">
@@ -13044,7 +13195,9 @@
       <c r="D355" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E355"/>
+      <c r="E355" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="356" ht="15.75" customHeight="1">
       <c r="A356" s="3" t="s">
@@ -13179,7 +13332,9 @@
       <c r="D364" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E364"/>
+      <c r="E364" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="365" ht="15.75" customHeight="1">
       <c r="A365" s="3" t="s">
@@ -13194,7 +13349,9 @@
       <c r="D365" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E365"/>
+      <c r="E365" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="366" ht="15.75" customHeight="1">
       <c r="A366" s="3" t="s">
@@ -13329,7 +13486,9 @@
       <c r="D374" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E374"/>
+      <c r="E374" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="375" ht="15.75" customHeight="1">
       <c r="A375" s="3" t="s">
@@ -13344,7 +13503,9 @@
       <c r="D375" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E375"/>
+      <c r="E375" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="376" ht="15.75" customHeight="1">
       <c r="A376" s="3" t="s">
@@ -13479,7 +13640,9 @@
       <c r="D384" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E384"/>
+      <c r="E384" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="385" ht="15.75" customHeight="1">
       <c r="A385" s="3" t="s">
@@ -13494,7 +13657,9 @@
       <c r="D385" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E385"/>
+      <c r="E385" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="386" ht="15.75" customHeight="1">
       <c r="A386" s="3" t="s">
@@ -13629,7 +13794,9 @@
       <c r="D394" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E394"/>
+      <c r="E394" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="395" ht="15.75" customHeight="1">
       <c r="A395" s="3" t="s">
@@ -13644,7 +13811,9 @@
       <c r="D395" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E395"/>
+      <c r="E395" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="396" ht="15.75" customHeight="1">
       <c r="A396" s="3" t="s">
@@ -13779,7 +13948,9 @@
       <c r="D404" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E404"/>
+      <c r="E404" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="405" ht="15.75" customHeight="1">
       <c r="A405" s="3" t="s">
@@ -13794,7 +13965,9 @@
       <c r="D405" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E405"/>
+      <c r="E405" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="406" ht="15.75" customHeight="1">
       <c r="A406" s="3" t="s">
@@ -13929,7 +14102,9 @@
       <c r="D414" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E414"/>
+      <c r="E414" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="415" ht="15.75" customHeight="1">
       <c r="A415" s="3" t="s">
@@ -13944,7 +14119,9 @@
       <c r="D415" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E415"/>
+      <c r="E415" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="416" ht="15.75" customHeight="1">
       <c r="A416" s="3" t="s">
@@ -14079,7 +14256,9 @@
       <c r="D424" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E424"/>
+      <c r="E424" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="425" ht="15.75" customHeight="1">
       <c r="A425" s="3" t="s">
@@ -14094,7 +14273,9 @@
       <c r="D425" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E425"/>
+      <c r="E425" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="426" ht="15.75" customHeight="1">
       <c r="A426" s="3" t="s">
@@ -14229,7 +14410,9 @@
       <c r="D434" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E434"/>
+      <c r="E434" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="435" ht="15.75" customHeight="1">
       <c r="A435" s="3" t="s">
@@ -14244,7 +14427,9 @@
       <c r="D435" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E435"/>
+      <c r="E435" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="436" ht="15.75" customHeight="1">
       <c r="A436" s="3" t="s">
@@ -14379,7 +14564,9 @@
       <c r="D444" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E444"/>
+      <c r="E444" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="445" ht="15.75" customHeight="1">
       <c r="A445" s="3" t="s">
@@ -14394,7 +14581,9 @@
       <c r="D445" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E445"/>
+      <c r="E445" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="446" ht="15.75" customHeight="1">
       <c r="A446" s="3" t="s">
@@ -14529,7 +14718,9 @@
       <c r="D454" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E454"/>
+      <c r="E454" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="455" ht="15.75" customHeight="1">
       <c r="A455" s="3" t="s">
@@ -14544,7 +14735,9 @@
       <c r="D455" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E455"/>
+      <c r="E455" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="456" ht="15.75" customHeight="1">
       <c r="A456" s="3" t="s">
@@ -14679,7 +14872,9 @@
       <c r="D464" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E464"/>
+      <c r="E464" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="465" ht="15.75" customHeight="1">
       <c r="A465" s="3" t="s">
@@ -14694,7 +14889,9 @@
       <c r="D465" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E465"/>
+      <c r="E465" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="466" ht="15.75" customHeight="1">
       <c r="A466" s="3" t="s">
@@ -14829,7 +15026,9 @@
       <c r="D474" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E474"/>
+      <c r="E474" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="475" ht="15.75" customHeight="1">
       <c r="A475" s="3" t="s">
@@ -14844,7 +15043,9 @@
       <c r="D475" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E475"/>
+      <c r="E475" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="476" ht="15.75" customHeight="1">
       <c r="A476" s="3" t="s">
@@ -14979,7 +15180,9 @@
       <c r="D484" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E484"/>
+      <c r="E484" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="485" ht="15.75" customHeight="1">
       <c r="A485" s="3" t="s">
@@ -14994,7 +15197,9 @@
       <c r="D485" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E485"/>
+      <c r="E485" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="486" ht="15.75" customHeight="1">
       <c r="A486" s="3" t="s">
@@ -15129,7 +15334,9 @@
       <c r="D494" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E494"/>
+      <c r="E494" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="495" ht="15.75" customHeight="1">
       <c r="A495" s="3" t="s">
@@ -15144,7 +15351,9 @@
       <c r="D495" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E495"/>
+      <c r="E495" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="496" ht="15.75" customHeight="1">
       <c r="A496" s="3" t="s">
@@ -15279,7 +15488,9 @@
       <c r="D504" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E504"/>
+      <c r="E504" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="505" ht="15.75" customHeight="1">
       <c r="A505" s="3" t="s">
@@ -15294,7 +15505,9 @@
       <c r="D505" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E505"/>
+      <c r="E505" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="506" ht="15.75" customHeight="1">
       <c r="A506" s="3" t="s">
@@ -15429,7 +15642,9 @@
       <c r="D514" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E514"/>
+      <c r="E514" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="515" ht="15.75" customHeight="1">
       <c r="A515" s="3" t="s">
@@ -15444,7 +15659,9 @@
       <c r="D515" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E515"/>
+      <c r="E515" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="516" ht="15.75" customHeight="1">
       <c r="A516" s="3" t="s">
@@ -15579,7 +15796,9 @@
       <c r="D524" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E524"/>
+      <c r="E524" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="525" ht="15.75" customHeight="1">
       <c r="A525" s="3" t="s">
@@ -15594,7 +15813,9 @@
       <c r="D525" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E525"/>
+      <c r="E525" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="526" ht="15.75" customHeight="1">
       <c r="A526" s="3" t="s">
@@ -15729,7 +15950,9 @@
       <c r="D534" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E534"/>
+      <c r="E534" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="535" ht="15.75" customHeight="1">
       <c r="A535" s="3" t="s">
@@ -15744,7 +15967,9 @@
       <c r="D535" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E535"/>
+      <c r="E535" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="536" ht="15.75" customHeight="1">
       <c r="A536" s="3" t="s">
@@ -15879,7 +16104,9 @@
       <c r="D544" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E544"/>
+      <c r="E544" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="545" ht="15.75" customHeight="1">
       <c r="A545" s="3" t="s">
@@ -15894,7 +16121,9 @@
       <c r="D545" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E545"/>
+      <c r="E545" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="546" ht="15.75" customHeight="1">
       <c r="A546" s="3" t="s">
@@ -16029,7 +16258,9 @@
       <c r="D554" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E554"/>
+      <c r="E554" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="555" ht="15.75" customHeight="1">
       <c r="A555" s="3" t="s">
@@ -16044,7 +16275,9 @@
       <c r="D555" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E555"/>
+      <c r="E555" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="556" ht="15.75" customHeight="1">
       <c r="A556" s="3" t="s">
@@ -16179,7 +16412,9 @@
       <c r="D564" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E564"/>
+      <c r="E564" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="565" ht="15.75" customHeight="1">
       <c r="A565" s="3" t="s">
@@ -16194,7 +16429,9 @@
       <c r="D565" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E565"/>
+      <c r="E565" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="566" ht="15.75" customHeight="1">
       <c r="A566" s="3" t="s">
@@ -16329,7 +16566,9 @@
       <c r="D574" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E574"/>
+      <c r="E574" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="575" ht="15.75" customHeight="1">
       <c r="A575" s="3" t="s">
@@ -16344,7 +16583,9 @@
       <c r="D575" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E575"/>
+      <c r="E575" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="576" ht="15.75" customHeight="1">
       <c r="A576" s="3" t="s">
@@ -16479,7 +16720,9 @@
       <c r="D584" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E584"/>
+      <c r="E584" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="585" ht="15.75" customHeight="1">
       <c r="A585" s="3" t="s">
@@ -16494,7 +16737,9 @@
       <c r="D585" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E585"/>
+      <c r="E585" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="586" ht="15.75" customHeight="1">
       <c r="A586" s="3" t="s">
@@ -16629,7 +16874,9 @@
       <c r="D594" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E594"/>
+      <c r="E594" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="595" ht="15.75" customHeight="1">
       <c r="A595" s="3" t="s">
@@ -16644,7 +16891,9 @@
       <c r="D595" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E595"/>
+      <c r="E595" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="596" ht="15.75" customHeight="1">
       <c r="A596" s="3" t="s">
@@ -16779,7 +17028,9 @@
       <c r="D604" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E604"/>
+      <c r="E604" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="605" ht="15.75" customHeight="1">
       <c r="A605" s="3" t="s">
@@ -16794,7 +17045,9 @@
       <c r="D605" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E605"/>
+      <c r="E605" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="606" ht="15.75" customHeight="1">
       <c r="A606" s="3" t="s">
@@ -16929,7 +17182,9 @@
       <c r="D614" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E614"/>
+      <c r="E614" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="615" ht="15.75" customHeight="1">
       <c r="A615" s="3" t="s">
@@ -16944,7 +17199,9 @@
       <c r="D615" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E615"/>
+      <c r="E615" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="616" ht="15.75" customHeight="1">
       <c r="A616" s="3" t="s">
@@ -17079,7 +17336,9 @@
       <c r="D624" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E624"/>
+      <c r="E624" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="625" ht="15.75" customHeight="1">
       <c r="A625" s="3" t="s">
@@ -17094,7 +17353,9 @@
       <c r="D625" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E625"/>
+      <c r="E625" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="626" ht="15.75" customHeight="1">
       <c r="A626" s="3" t="s">
@@ -17229,7 +17490,9 @@
       <c r="D634" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E634"/>
+      <c r="E634" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="635" ht="15.75" customHeight="1">
       <c r="A635" s="3" t="s">
@@ -17244,7 +17507,9 @@
       <c r="D635" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E635"/>
+      <c r="E635" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="636" ht="15.75" customHeight="1">
       <c r="A636" s="3" t="s">
@@ -17379,7 +17644,9 @@
       <c r="D644" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E644"/>
+      <c r="E644" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="645" ht="15.75" customHeight="1">
       <c r="A645" s="3" t="s">
@@ -17394,7 +17661,9 @@
       <c r="D645" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E645"/>
+      <c r="E645" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="646" ht="15.75" customHeight="1">
       <c r="A646" s="3" t="s">
@@ -17529,7 +17798,9 @@
       <c r="D654" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E654"/>
+      <c r="E654" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="655" ht="15.75" customHeight="1">
       <c r="A655" s="3" t="s">
@@ -17544,7 +17815,9 @@
       <c r="D655" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E655"/>
+      <c r="E655" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="656" ht="15.75" customHeight="1">
       <c r="A656" s="3" t="s">
@@ -17679,7 +17952,9 @@
       <c r="D664" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E664"/>
+      <c r="E664" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="665" ht="15.75" customHeight="1">
       <c r="A665" s="3" t="s">
@@ -17694,7 +17969,9 @@
       <c r="D665" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E665"/>
+      <c r="E665" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="666" ht="15.75" customHeight="1">
       <c r="A666" s="3" t="s">
@@ -17829,7 +18106,9 @@
       <c r="D674" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E674"/>
+      <c r="E674" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="675" ht="15.75" customHeight="1">
       <c r="A675" s="3" t="s">
@@ -17844,7 +18123,9 @@
       <c r="D675" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E675"/>
+      <c r="E675" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="676" ht="15.75" customHeight="1">
       <c r="A676" s="3" t="s">
@@ -17979,7 +18260,9 @@
       <c r="D684" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E684"/>
+      <c r="E684" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="685" ht="15.75" customHeight="1">
       <c r="A685" s="3" t="s">
@@ -17994,7 +18277,9 @@
       <c r="D685" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E685"/>
+      <c r="E685" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="686" ht="15.75" customHeight="1">
       <c r="A686" s="3" t="s">
@@ -18129,7 +18414,9 @@
       <c r="D694" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E694"/>
+      <c r="E694" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="695" ht="15.75" customHeight="1">
       <c r="A695" s="3" t="s">
@@ -18144,7 +18431,9 @@
       <c r="D695" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E695"/>
+      <c r="E695" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="696" ht="15.75" customHeight="1">
       <c r="A696" s="3" t="s">
@@ -18279,7 +18568,9 @@
       <c r="D704" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E704"/>
+      <c r="E704" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="705" ht="15.75" customHeight="1">
       <c r="A705" s="3" t="s">
@@ -18294,7 +18585,9 @@
       <c r="D705" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E705"/>
+      <c r="E705" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="706" ht="15.75" customHeight="1">
       <c r="A706" s="3" t="s">
@@ -18429,7 +18722,9 @@
       <c r="D714" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E714"/>
+      <c r="E714" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="715" ht="15.75" customHeight="1">
       <c r="A715" s="3" t="s">
@@ -18444,7 +18739,9 @@
       <c r="D715" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E715"/>
+      <c r="E715" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="716" ht="15.75" customHeight="1">
       <c r="A716" s="3" t="s">
@@ -18579,7 +18876,9 @@
       <c r="D724" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E724"/>
+      <c r="E724" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="725" ht="15.75" customHeight="1">
       <c r="A725" s="3" t="s">
@@ -18594,7 +18893,9 @@
       <c r="D725" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E725"/>
+      <c r="E725" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="726" ht="15.75" customHeight="1">
       <c r="A726" s="3" t="s">
@@ -18729,7 +19030,9 @@
       <c r="D734" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E734"/>
+      <c r="E734" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="735" ht="15.75" customHeight="1">
       <c r="A735" s="3" t="s">
@@ -18744,7 +19047,9 @@
       <c r="D735" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E735"/>
+      <c r="E735" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="736" ht="15.75" customHeight="1">
       <c r="A736" s="3" t="s">
@@ -18879,7 +19184,9 @@
       <c r="D744" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E744"/>
+      <c r="E744" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="745" ht="15.75" customHeight="1">
       <c r="A745" s="3" t="s">
@@ -18894,7 +19201,9 @@
       <c r="D745" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E745"/>
+      <c r="E745" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="746" ht="15.75" customHeight="1">
       <c r="A746" s="3" t="s">
@@ -19029,7 +19338,9 @@
       <c r="D754" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E754"/>
+      <c r="E754" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="755" ht="15.75" customHeight="1">
       <c r="A755" s="3" t="s">
@@ -19044,7 +19355,9 @@
       <c r="D755" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E755"/>
+      <c r="E755" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="756" ht="15.75" customHeight="1">
       <c r="A756" s="3" t="s">
@@ -19179,7 +19492,9 @@
       <c r="D764" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E764"/>
+      <c r="E764" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="765" ht="15.75" customHeight="1">
       <c r="A765" s="3" t="s">
@@ -19194,7 +19509,9 @@
       <c r="D765" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E765"/>
+      <c r="E765" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="766" ht="15.75" customHeight="1">
       <c r="A766" s="3" t="s">
@@ -19329,7 +19646,9 @@
       <c r="D774" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E774"/>
+      <c r="E774" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="775" ht="15.75" customHeight="1">
       <c r="A775" s="3" t="s">
@@ -19344,7 +19663,9 @@
       <c r="D775" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E775"/>
+      <c r="E775" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="776" ht="15.75" customHeight="1">
       <c r="A776" s="3" t="s">
@@ -19479,7 +19800,9 @@
       <c r="D784" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E784"/>
+      <c r="E784" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="785" ht="15.75" customHeight="1">
       <c r="A785" s="3" t="s">
@@ -19494,7 +19817,9 @@
       <c r="D785" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E785"/>
+      <c r="E785" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="786" ht="15.75" customHeight="1">
       <c r="A786" s="3" t="s">
@@ -19629,7 +19954,9 @@
       <c r="D794" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E794"/>
+      <c r="E794" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="795" ht="15.75" customHeight="1">
       <c r="A795" s="3" t="s">
@@ -19644,7 +19971,9 @@
       <c r="D795" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E795"/>
+      <c r="E795" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="796" ht="15.75" customHeight="1">
       <c r="A796" s="3" t="s">
@@ -19779,7 +20108,9 @@
       <c r="D804" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E804"/>
+      <c r="E804" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="805" ht="15.75" customHeight="1">
       <c r="A805" s="3" t="s">
@@ -19794,7 +20125,9 @@
       <c r="D805" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E805"/>
+      <c r="E805" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="806" ht="15.75" customHeight="1">
       <c r="A806" s="3" t="s">
@@ -19914,7 +20247,9 @@
       <c r="D813" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E813"/>
+      <c r="E813" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="814" ht="15.75" customHeight="1">
       <c r="A814" s="3" t="s">

--- a/Samples.xlsx
+++ b/Samples.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3261" uniqueCount="3261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3262" uniqueCount="3262">
   <si>
     <t>Matrix_ID</t>
   </si>
@@ -9796,6 +9796,9 @@
   </si>
   <si>
     <t xml:space="preserve">1749601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLUTEST_04_250808</t>
   </si>
 </sst>
 </file>
@@ -10279,7 +10282,9 @@
       <c r="D8" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E8"/>
+      <c r="E8" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
@@ -10294,7 +10299,9 @@
       <c r="D9" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E9"/>
+      <c r="E9" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
@@ -10433,7 +10440,9 @@
       <c r="D18" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E18"/>
+      <c r="E18" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="3" t="s">
@@ -10448,7 +10457,9 @@
       <c r="D19" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E19"/>
+      <c r="E19" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="3" t="s">
@@ -10587,7 +10598,9 @@
       <c r="D28" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E28"/>
+      <c r="E28" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="3" t="s">
@@ -10602,7 +10615,9 @@
       <c r="D29" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E29"/>
+      <c r="E29" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="3" t="s">
@@ -10741,7 +10756,9 @@
       <c r="D38" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E38"/>
+      <c r="E38" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="3" t="s">
@@ -10756,7 +10773,9 @@
       <c r="D39" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E39"/>
+      <c r="E39" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="3" t="s">
@@ -10895,7 +10914,9 @@
       <c r="D48" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E48"/>
+      <c r="E48" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="3" t="s">
@@ -10910,7 +10931,9 @@
       <c r="D49" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E49"/>
+      <c r="E49" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="3" t="s">
@@ -11049,7 +11072,9 @@
       <c r="D58" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E58"/>
+      <c r="E58" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="3" t="s">
@@ -11064,7 +11089,9 @@
       <c r="D59" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E59"/>
+      <c r="E59" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="3" t="s">
@@ -11203,7 +11230,9 @@
       <c r="D68" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E68"/>
+      <c r="E68" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="3" t="s">
@@ -11218,7 +11247,9 @@
       <c r="D69" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E69"/>
+      <c r="E69" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="3" t="s">
@@ -11357,7 +11388,9 @@
       <c r="D78" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E78"/>
+      <c r="E78" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="3" t="s">
@@ -11372,7 +11405,9 @@
       <c r="D79" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E79"/>
+      <c r="E79" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="3" t="s">
@@ -11511,7 +11546,9 @@
       <c r="D88" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E88"/>
+      <c r="E88" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="3" t="s">
@@ -11526,7 +11563,9 @@
       <c r="D89" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E89"/>
+      <c r="E89" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="3" t="s">
@@ -11665,7 +11704,9 @@
       <c r="D98" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E98"/>
+      <c r="E98" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="3" t="s">
@@ -11680,7 +11721,9 @@
       <c r="D99" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E99"/>
+      <c r="E99" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="3" t="s">
@@ -11819,7 +11862,9 @@
       <c r="D108" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E108"/>
+      <c r="E108" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="3" t="s">
@@ -11834,7 +11879,9 @@
       <c r="D109" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E109"/>
+      <c r="E109" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="3" t="s">
@@ -11973,7 +12020,9 @@
       <c r="D118" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E118"/>
+      <c r="E118" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="3" t="s">
@@ -11988,7 +12037,9 @@
       <c r="D119" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E119"/>
+      <c r="E119" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="3" t="s">
@@ -12127,7 +12178,9 @@
       <c r="D128" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E128"/>
+      <c r="E128" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="3" t="s">
@@ -12142,7 +12195,9 @@
       <c r="D129" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E129"/>
+      <c r="E129" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="3" t="s">
@@ -12281,7 +12336,9 @@
       <c r="D138" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E138"/>
+      <c r="E138" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="3" t="s">
@@ -12296,7 +12353,9 @@
       <c r="D139" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E139"/>
+      <c r="E139" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="3" t="s">
@@ -12435,7 +12494,9 @@
       <c r="D148" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E148"/>
+      <c r="E148" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="3" t="s">
@@ -12450,7 +12511,9 @@
       <c r="D149" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E149"/>
+      <c r="E149" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="3" t="s">
@@ -12589,7 +12652,9 @@
       <c r="D158" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E158"/>
+      <c r="E158" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="3" t="s">
@@ -12604,7 +12669,9 @@
       <c r="D159" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E159"/>
+      <c r="E159" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="3" t="s">
@@ -12743,7 +12810,9 @@
       <c r="D168" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E168"/>
+      <c r="E168" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="3" t="s">
@@ -12758,7 +12827,9 @@
       <c r="D169" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E169"/>
+      <c r="E169" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="3" t="s">
@@ -12897,7 +12968,9 @@
       <c r="D178" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E178"/>
+      <c r="E178" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="3" t="s">
@@ -12912,7 +12985,9 @@
       <c r="D179" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E179"/>
+      <c r="E179" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="3" t="s">
@@ -13051,7 +13126,9 @@
       <c r="D188" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E188"/>
+      <c r="E188" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="3" t="s">
@@ -13066,7 +13143,9 @@
       <c r="D189" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E189"/>
+      <c r="E189" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="3" t="s">
@@ -13205,7 +13284,9 @@
       <c r="D198" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E198"/>
+      <c r="E198" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="3" t="s">
@@ -13220,7 +13301,9 @@
       <c r="D199" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E199"/>
+      <c r="E199" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="3" t="s">
@@ -13359,7 +13442,9 @@
       <c r="D208" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E208"/>
+      <c r="E208" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="3" t="s">
@@ -13374,7 +13459,9 @@
       <c r="D209" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E209"/>
+      <c r="E209" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="3" t="s">
@@ -13513,7 +13600,9 @@
       <c r="D218" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E218"/>
+      <c r="E218" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="3" t="s">
@@ -13528,7 +13617,9 @@
       <c r="D219" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E219"/>
+      <c r="E219" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="3" t="s">
@@ -13667,7 +13758,9 @@
       <c r="D228" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E228"/>
+      <c r="E228" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="229" ht="15.75" customHeight="1">
       <c r="A229" s="3" t="s">
@@ -13682,7 +13775,9 @@
       <c r="D229" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E229"/>
+      <c r="E229" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="230" ht="15.75" customHeight="1">
       <c r="A230" s="3" t="s">
@@ -13821,7 +13916,9 @@
       <c r="D238" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E238"/>
+      <c r="E238" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="239" ht="15.75" customHeight="1">
       <c r="A239" s="3" t="s">
@@ -13836,7 +13933,9 @@
       <c r="D239" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E239"/>
+      <c r="E239" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="240" ht="15.75" customHeight="1">
       <c r="A240" s="3" t="s">
@@ -13977,7 +14076,9 @@
       <c r="D248" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E248"/>
+      <c r="E248" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="249" ht="15.75" customHeight="1">
       <c r="A249" s="3" t="s">
@@ -13992,7 +14093,9 @@
       <c r="D249" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E249"/>
+      <c r="E249" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="250" ht="15.75" customHeight="1">
       <c r="A250" s="3" t="s">
@@ -14131,7 +14234,9 @@
       <c r="D258" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E258"/>
+      <c r="E258" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="259" ht="15.75" customHeight="1">
       <c r="A259" s="3" t="s">
@@ -14146,7 +14251,9 @@
       <c r="D259" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E259"/>
+      <c r="E259" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="260" ht="15.75" customHeight="1">
       <c r="A260" s="3" t="s">
@@ -14285,7 +14392,9 @@
       <c r="D268" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E268"/>
+      <c r="E268" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="269" ht="15.75" customHeight="1">
       <c r="A269" s="3" t="s">
@@ -14300,7 +14409,9 @@
       <c r="D269" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E269"/>
+      <c r="E269" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="270" ht="15.75" customHeight="1">
       <c r="A270" s="3" t="s">
@@ -14439,7 +14550,9 @@
       <c r="D278" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E278"/>
+      <c r="E278" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="279" ht="15.75" customHeight="1">
       <c r="A279" s="3" t="s">
@@ -14454,7 +14567,9 @@
       <c r="D279" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E279"/>
+      <c r="E279" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="280" ht="15.75" customHeight="1">
       <c r="A280" s="3" t="s">
@@ -14593,7 +14708,9 @@
       <c r="D288" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E288"/>
+      <c r="E288" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="289" ht="15.75" customHeight="1">
       <c r="A289" s="3" t="s">
@@ -14608,7 +14725,9 @@
       <c r="D289" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E289"/>
+      <c r="E289" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="290" ht="15.75" customHeight="1">
       <c r="A290" s="3" t="s">
@@ -14747,7 +14866,9 @@
       <c r="D298" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E298"/>
+      <c r="E298" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="299" ht="15.75" customHeight="1">
       <c r="A299" s="3" t="s">
@@ -14762,7 +14883,9 @@
       <c r="D299" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E299"/>
+      <c r="E299" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="300" ht="15.75" customHeight="1">
       <c r="A300" s="3" t="s">
@@ -14901,7 +15024,9 @@
       <c r="D308" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E308"/>
+      <c r="E308" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="309" ht="15.75" customHeight="1">
       <c r="A309" s="3" t="s">
@@ -14916,7 +15041,9 @@
       <c r="D309" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E309"/>
+      <c r="E309" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="310" ht="15.75" customHeight="1">
       <c r="A310" s="3" t="s">
@@ -15055,7 +15182,9 @@
       <c r="D318" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E318"/>
+      <c r="E318" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="319" ht="15.75" customHeight="1">
       <c r="A319" s="3" t="s">
@@ -15070,7 +15199,9 @@
       <c r="D319" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E319"/>
+      <c r="E319" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="320" ht="15.75" customHeight="1">
       <c r="A320" s="3" t="s">
@@ -15209,7 +15340,9 @@
       <c r="D328" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E328"/>
+      <c r="E328" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="329" ht="15.75" customHeight="1">
       <c r="A329" s="3" t="s">
@@ -15224,7 +15357,9 @@
       <c r="D329" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E329"/>
+      <c r="E329" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="330" ht="15.75" customHeight="1">
       <c r="A330" s="3" t="s">
@@ -15363,7 +15498,9 @@
       <c r="D338" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E338"/>
+      <c r="E338" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="339" ht="15.75" customHeight="1">
       <c r="A339" s="3" t="s">
@@ -15378,7 +15515,9 @@
       <c r="D339" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E339"/>
+      <c r="E339" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="340" ht="15.75" customHeight="1">
       <c r="A340" s="3" t="s">
@@ -15517,7 +15656,9 @@
       <c r="D348" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E348"/>
+      <c r="E348" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="349" ht="15.75" customHeight="1">
       <c r="A349" s="3" t="s">
@@ -15532,7 +15673,9 @@
       <c r="D349" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E349"/>
+      <c r="E349" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="350" ht="15.75" customHeight="1">
       <c r="A350" s="3" t="s">
@@ -15671,7 +15814,9 @@
       <c r="D358" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E358"/>
+      <c r="E358" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="359" ht="15.75" customHeight="1">
       <c r="A359" s="3" t="s">
@@ -15686,7 +15831,9 @@
       <c r="D359" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E359"/>
+      <c r="E359" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="360" ht="15.75" customHeight="1">
       <c r="A360" s="3" t="s">
@@ -15825,7 +15972,9 @@
       <c r="D368" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E368"/>
+      <c r="E368" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="369" ht="15.75" customHeight="1">
       <c r="A369" s="3" t="s">
@@ -15840,7 +15989,9 @@
       <c r="D369" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E369"/>
+      <c r="E369" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="370" ht="15.75" customHeight="1">
       <c r="A370" s="3" t="s">
@@ -15979,7 +16130,9 @@
       <c r="D378" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E378"/>
+      <c r="E378" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="379" ht="15.75" customHeight="1">
       <c r="A379" s="3" t="s">
@@ -15994,7 +16147,9 @@
       <c r="D379" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E379"/>
+      <c r="E379" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="380" ht="15.75" customHeight="1">
       <c r="A380" s="3" t="s">
@@ -16133,7 +16288,9 @@
       <c r="D388" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E388"/>
+      <c r="E388" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="389" ht="15.75" customHeight="1">
       <c r="A389" s="3" t="s">
@@ -16148,7 +16305,9 @@
       <c r="D389" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E389"/>
+      <c r="E389" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="390" ht="15.75" customHeight="1">
       <c r="A390" s="3" t="s">
@@ -16287,7 +16446,9 @@
       <c r="D398" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E398"/>
+      <c r="E398" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="399" ht="15.75" customHeight="1">
       <c r="A399" s="3" t="s">
@@ -16302,7 +16463,9 @@
       <c r="D399" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E399"/>
+      <c r="E399" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="400" ht="15.75" customHeight="1">
       <c r="A400" s="3" t="s">
@@ -16441,7 +16604,9 @@
       <c r="D408" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E408"/>
+      <c r="E408" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="409" ht="15.75" customHeight="1">
       <c r="A409" s="3" t="s">
@@ -16456,7 +16621,9 @@
       <c r="D409" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E409"/>
+      <c r="E409" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="410" ht="15.75" customHeight="1">
       <c r="A410" s="3" t="s">
@@ -16595,7 +16762,9 @@
       <c r="D418" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E418"/>
+      <c r="E418" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="419" ht="15.75" customHeight="1">
       <c r="A419" s="3" t="s">
@@ -16610,7 +16779,9 @@
       <c r="D419" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E419"/>
+      <c r="E419" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="420" ht="15.75" customHeight="1">
       <c r="A420" s="3" t="s">
@@ -16749,7 +16920,9 @@
       <c r="D428" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E428"/>
+      <c r="E428" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="429" ht="15.75" customHeight="1">
       <c r="A429" s="3" t="s">
@@ -16764,7 +16937,9 @@
       <c r="D429" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E429"/>
+      <c r="E429" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="430" ht="15.75" customHeight="1">
       <c r="A430" s="3" t="s">
@@ -16903,7 +17078,9 @@
       <c r="D438" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E438"/>
+      <c r="E438" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="439" ht="15.75" customHeight="1">
       <c r="A439" s="3" t="s">
@@ -16918,7 +17095,9 @@
       <c r="D439" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E439"/>
+      <c r="E439" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="440" ht="15.75" customHeight="1">
       <c r="A440" s="3" t="s">
@@ -17057,7 +17236,9 @@
       <c r="D448" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E448"/>
+      <c r="E448" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="449" ht="15.75" customHeight="1">
       <c r="A449" s="3" t="s">
@@ -17072,7 +17253,9 @@
       <c r="D449" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E449"/>
+      <c r="E449" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="450" ht="15.75" customHeight="1">
       <c r="A450" s="3" t="s">
@@ -17211,7 +17394,9 @@
       <c r="D458" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E458"/>
+      <c r="E458" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="459" ht="15.75" customHeight="1">
       <c r="A459" s="3" t="s">
@@ -17226,7 +17411,9 @@
       <c r="D459" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E459"/>
+      <c r="E459" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="460" ht="15.75" customHeight="1">
       <c r="A460" s="3" t="s">
@@ -17365,7 +17552,9 @@
       <c r="D468" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E468"/>
+      <c r="E468" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="469" ht="15.75" customHeight="1">
       <c r="A469" s="3" t="s">
@@ -17380,7 +17569,9 @@
       <c r="D469" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E469"/>
+      <c r="E469" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="470" ht="15.75" customHeight="1">
       <c r="A470" s="3" t="s">
@@ -17519,7 +17710,9 @@
       <c r="D478" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E478"/>
+      <c r="E478" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="479" ht="15.75" customHeight="1">
       <c r="A479" s="3" t="s">
@@ -17534,7 +17727,9 @@
       <c r="D479" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E479"/>
+      <c r="E479" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="480" ht="15.75" customHeight="1">
       <c r="A480" s="3" t="s">
@@ -17673,7 +17868,9 @@
       <c r="D488" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E488"/>
+      <c r="E488" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="489" ht="15.75" customHeight="1">
       <c r="A489" s="3" t="s">
@@ -17688,7 +17885,9 @@
       <c r="D489" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E489"/>
+      <c r="E489" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="490" ht="15.75" customHeight="1">
       <c r="A490" s="3" t="s">
@@ -17827,7 +18026,9 @@
       <c r="D498" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E498"/>
+      <c r="E498" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="499" ht="15.75" customHeight="1">
       <c r="A499" s="3" t="s">
@@ -17842,7 +18043,9 @@
       <c r="D499" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E499"/>
+      <c r="E499" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="500" ht="15.75" customHeight="1">
       <c r="A500" s="3" t="s">
@@ -17981,7 +18184,9 @@
       <c r="D508" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E508"/>
+      <c r="E508" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="509" ht="15.75" customHeight="1">
       <c r="A509" s="3" t="s">
@@ -17996,7 +18201,9 @@
       <c r="D509" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E509"/>
+      <c r="E509" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="510" ht="15.75" customHeight="1">
       <c r="A510" s="3" t="s">
@@ -18135,7 +18342,9 @@
       <c r="D518" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E518"/>
+      <c r="E518" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="519" ht="15.75" customHeight="1">
       <c r="A519" s="3" t="s">
@@ -18150,7 +18359,9 @@
       <c r="D519" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E519"/>
+      <c r="E519" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="520" ht="15.75" customHeight="1">
       <c r="A520" s="3" t="s">
@@ -18289,7 +18500,9 @@
       <c r="D528" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E528"/>
+      <c r="E528" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="529" ht="15.75" customHeight="1">
       <c r="A529" s="3" t="s">
@@ -18304,7 +18517,9 @@
       <c r="D529" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E529"/>
+      <c r="E529" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="530" ht="15.75" customHeight="1">
       <c r="A530" s="3" t="s">
@@ -18443,7 +18658,9 @@
       <c r="D538" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E538"/>
+      <c r="E538" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="539" ht="15.75" customHeight="1">
       <c r="A539" s="3" t="s">
@@ -18458,7 +18675,9 @@
       <c r="D539" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E539"/>
+      <c r="E539" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="540" ht="15.75" customHeight="1">
       <c r="A540" s="3" t="s">
@@ -18597,7 +18816,9 @@
       <c r="D548" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E548"/>
+      <c r="E548" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="549" ht="15.75" customHeight="1">
       <c r="A549" s="3" t="s">
@@ -18612,7 +18833,9 @@
       <c r="D549" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E549"/>
+      <c r="E549" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="550" ht="15.75" customHeight="1">
       <c r="A550" s="3" t="s">
@@ -18751,7 +18974,9 @@
       <c r="D558" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E558"/>
+      <c r="E558" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="559" ht="15.75" customHeight="1">
       <c r="A559" s="3" t="s">
@@ -18766,7 +18991,9 @@
       <c r="D559" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E559"/>
+      <c r="E559" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="560" ht="15.75" customHeight="1">
       <c r="A560" s="3" t="s">
@@ -18905,7 +19132,9 @@
       <c r="D568" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E568"/>
+      <c r="E568" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="569" ht="15.75" customHeight="1">
       <c r="A569" s="3" t="s">
@@ -18920,7 +19149,9 @@
       <c r="D569" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E569"/>
+      <c r="E569" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="570" ht="15.75" customHeight="1">
       <c r="A570" s="3" t="s">
@@ -19059,7 +19290,9 @@
       <c r="D578" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E578"/>
+      <c r="E578" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="579" ht="15.75" customHeight="1">
       <c r="A579" s="3" t="s">
@@ -19074,7 +19307,9 @@
       <c r="D579" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E579"/>
+      <c r="E579" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="580" ht="15.75" customHeight="1">
       <c r="A580" s="3" t="s">
@@ -19213,7 +19448,9 @@
       <c r="D588" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E588"/>
+      <c r="E588" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="589" ht="15.75" customHeight="1">
       <c r="A589" s="3" t="s">
@@ -19228,7 +19465,9 @@
       <c r="D589" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E589"/>
+      <c r="E589" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="590" ht="15.75" customHeight="1">
       <c r="A590" s="3" t="s">
@@ -19367,7 +19606,9 @@
       <c r="D598" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E598"/>
+      <c r="E598" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="599" ht="15.75" customHeight="1">
       <c r="A599" s="3" t="s">
@@ -19382,7 +19623,9 @@
       <c r="D599" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E599"/>
+      <c r="E599" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="600" ht="15.75" customHeight="1">
       <c r="A600" s="3" t="s">
@@ -19521,7 +19764,9 @@
       <c r="D608" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E608"/>
+      <c r="E608" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="609" ht="15.75" customHeight="1">
       <c r="A609" s="3" t="s">
@@ -19536,7 +19781,9 @@
       <c r="D609" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E609"/>
+      <c r="E609" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="610" ht="15.75" customHeight="1">
       <c r="A610" s="3" t="s">
@@ -19675,7 +19922,9 @@
       <c r="D618" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E618"/>
+      <c r="E618" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="619" ht="15.75" customHeight="1">
       <c r="A619" s="3" t="s">
@@ -19690,7 +19939,9 @@
       <c r="D619" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E619"/>
+      <c r="E619" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="620" ht="15.75" customHeight="1">
       <c r="A620" s="3" t="s">
@@ -19829,7 +20080,9 @@
       <c r="D628" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E628"/>
+      <c r="E628" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="629" ht="15.75" customHeight="1">
       <c r="A629" s="3" t="s">
@@ -19844,7 +20097,9 @@
       <c r="D629" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E629"/>
+      <c r="E629" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="630" ht="15.75" customHeight="1">
       <c r="A630" s="3" t="s">
@@ -19983,7 +20238,9 @@
       <c r="D638" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E638"/>
+      <c r="E638" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="639" ht="15.75" customHeight="1">
       <c r="A639" s="3" t="s">
@@ -19998,7 +20255,9 @@
       <c r="D639" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E639"/>
+      <c r="E639" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="640" ht="15.75" customHeight="1">
       <c r="A640" s="3" t="s">
@@ -20137,7 +20396,9 @@
       <c r="D648" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E648"/>
+      <c r="E648" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="649" ht="15.75" customHeight="1">
       <c r="A649" s="3" t="s">
@@ -20152,7 +20413,9 @@
       <c r="D649" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E649"/>
+      <c r="E649" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="650" ht="15.75" customHeight="1">
       <c r="A650" s="3" t="s">
@@ -20291,7 +20554,9 @@
       <c r="D658" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E658"/>
+      <c r="E658" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="659" ht="15.75" customHeight="1">
       <c r="A659" s="3" t="s">
@@ -20306,7 +20571,9 @@
       <c r="D659" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E659"/>
+      <c r="E659" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="660" ht="15.75" customHeight="1">
       <c r="A660" s="3" t="s">
@@ -20445,7 +20712,9 @@
       <c r="D668" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E668"/>
+      <c r="E668" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="669" ht="15.75" customHeight="1">
       <c r="A669" s="3" t="s">
@@ -20460,7 +20729,9 @@
       <c r="D669" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E669"/>
+      <c r="E669" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="670" ht="15.75" customHeight="1">
       <c r="A670" s="3" t="s">
@@ -20599,7 +20870,9 @@
       <c r="D678" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E678"/>
+      <c r="E678" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="679" ht="15.75" customHeight="1">
       <c r="A679" s="3" t="s">
@@ -20614,7 +20887,9 @@
       <c r="D679" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E679"/>
+      <c r="E679" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="680" ht="15.75" customHeight="1">
       <c r="A680" s="3" t="s">
@@ -20753,7 +21028,9 @@
       <c r="D688" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E688"/>
+      <c r="E688" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="689" ht="15.75" customHeight="1">
       <c r="A689" s="3" t="s">
@@ -20768,7 +21045,9 @@
       <c r="D689" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E689"/>
+      <c r="E689" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="690" ht="15.75" customHeight="1">
       <c r="A690" s="3" t="s">
@@ -20907,7 +21186,9 @@
       <c r="D698" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E698"/>
+      <c r="E698" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="699" ht="15.75" customHeight="1">
       <c r="A699" s="3" t="s">
@@ -20922,7 +21203,9 @@
       <c r="D699" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E699"/>
+      <c r="E699" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="700" ht="15.75" customHeight="1">
       <c r="A700" s="3" t="s">
@@ -21061,7 +21344,9 @@
       <c r="D708" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E708"/>
+      <c r="E708" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="709" ht="15.75" customHeight="1">
       <c r="A709" s="3" t="s">
@@ -21076,7 +21361,9 @@
       <c r="D709" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E709"/>
+      <c r="E709" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="710" ht="15.75" customHeight="1">
       <c r="A710" s="3" t="s">
@@ -21215,7 +21502,9 @@
       <c r="D718" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E718"/>
+      <c r="E718" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="719" ht="15.75" customHeight="1">
       <c r="A719" s="3" t="s">
@@ -21230,7 +21519,9 @@
       <c r="D719" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E719"/>
+      <c r="E719" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="720" ht="15.75" customHeight="1">
       <c r="A720" s="3" t="s">
@@ -21369,7 +21660,9 @@
       <c r="D728" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E728"/>
+      <c r="E728" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="729" ht="15.75" customHeight="1">
       <c r="A729" s="3" t="s">
@@ -21384,7 +21677,9 @@
       <c r="D729" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E729"/>
+      <c r="E729" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="730" ht="15.75" customHeight="1">
       <c r="A730" s="3" t="s">
@@ -21523,7 +21818,9 @@
       <c r="D738" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E738"/>
+      <c r="E738" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="739" ht="15.75" customHeight="1">
       <c r="A739" s="3" t="s">
@@ -21538,7 +21835,9 @@
       <c r="D739" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E739"/>
+      <c r="E739" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="740" ht="15.75" customHeight="1">
       <c r="A740" s="3" t="s">
@@ -21677,7 +21976,9 @@
       <c r="D748" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E748"/>
+      <c r="E748" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="749" ht="15.75" customHeight="1">
       <c r="A749" s="3" t="s">
@@ -21692,7 +21993,9 @@
       <c r="D749" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E749"/>
+      <c r="E749" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="750" ht="15.75" customHeight="1">
       <c r="A750" s="3" t="s">
@@ -21831,7 +22134,9 @@
       <c r="D758" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E758"/>
+      <c r="E758" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="759" ht="15.75" customHeight="1">
       <c r="A759" s="3" t="s">
@@ -21846,7 +22151,9 @@
       <c r="D759" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E759"/>
+      <c r="E759" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="760" ht="15.75" customHeight="1">
       <c r="A760" s="3" t="s">
@@ -21985,7 +22292,9 @@
       <c r="D768" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E768"/>
+      <c r="E768" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="769" ht="15.75" customHeight="1">
       <c r="A769" s="3" t="s">
@@ -22000,7 +22309,9 @@
       <c r="D769" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E769"/>
+      <c r="E769" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="770" ht="15.75" customHeight="1">
       <c r="A770" s="3" t="s">
@@ -22139,7 +22450,9 @@
       <c r="D778" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E778"/>
+      <c r="E778" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="779" ht="15.75" customHeight="1">
       <c r="A779" s="3" t="s">
@@ -22154,7 +22467,9 @@
       <c r="D779" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E779"/>
+      <c r="E779" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="780" ht="15.75" customHeight="1">
       <c r="A780" s="3" t="s">
@@ -22293,7 +22608,9 @@
       <c r="D788" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E788"/>
+      <c r="E788" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="789" ht="15.75" customHeight="1">
       <c r="A789" s="3" t="s">
@@ -22308,7 +22625,9 @@
       <c r="D789" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E789"/>
+      <c r="E789" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="790" ht="15.75" customHeight="1">
       <c r="A790" s="3" t="s">
@@ -22447,7 +22766,9 @@
       <c r="D798" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E798"/>
+      <c r="E798" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="799" ht="15.75" customHeight="1">
       <c r="A799" s="3" t="s">
@@ -22462,7 +22783,9 @@
       <c r="D799" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E799"/>
+      <c r="E799" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="800" ht="15.75" customHeight="1">
       <c r="A800" s="3" t="s">
@@ -22601,7 +22924,9 @@
       <c r="D808" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E808"/>
+      <c r="E808" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="809" ht="15.75" customHeight="1">
       <c r="A809" s="3" t="s">
@@ -22616,7 +22941,9 @@
       <c r="D809" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E809"/>
+      <c r="E809" t="s">
+        <v>3261</v>
+      </c>
     </row>
     <row r="810" ht="15.75" customHeight="1">
       <c r="A810" s="3" t="s">

--- a/Samples.xlsx
+++ b/Samples.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3262" uniqueCount="3262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3263" uniqueCount="3263">
   <si>
     <t>Matrix_ID</t>
   </si>
@@ -9799,6 +9799,9 @@
   </si>
   <si>
     <t xml:space="preserve">CLUTEST_04_250808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLUTEST_03_250813</t>
   </si>
 </sst>
 </file>
@@ -10249,7 +10252,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
@@ -10266,7 +10269,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
@@ -10407,7 +10410,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
@@ -10424,7 +10427,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
@@ -10565,7 +10568,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
@@ -10582,7 +10585,7 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
@@ -10723,7 +10726,7 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
@@ -10740,7 +10743,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
@@ -10881,7 +10884,7 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -10898,7 +10901,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
@@ -11039,7 +11042,7 @@
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
@@ -11056,7 +11059,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
@@ -11197,7 +11200,7 @@
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
@@ -11214,7 +11217,7 @@
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
@@ -11355,7 +11358,7 @@
         <v>1</v>
       </c>
       <c r="E76" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
@@ -11372,7 +11375,7 @@
         <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
@@ -11513,7 +11516,7 @@
         <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
@@ -11530,7 +11533,7 @@
         <v>1</v>
       </c>
       <c r="E87" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
@@ -11671,7 +11674,7 @@
         <v>1</v>
       </c>
       <c r="E96" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
@@ -11688,7 +11691,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
@@ -11829,7 +11832,7 @@
         <v>1</v>
       </c>
       <c r="E106" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="107" ht="15.75" customHeight="1">
@@ -11846,7 +11849,7 @@
         <v>1</v>
       </c>
       <c r="E107" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="108" ht="15.75" customHeight="1">
@@ -11987,7 +11990,7 @@
         <v>1</v>
       </c>
       <c r="E116" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
@@ -12004,7 +12007,7 @@
         <v>1</v>
       </c>
       <c r="E117" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
@@ -12145,7 +12148,7 @@
         <v>1</v>
       </c>
       <c r="E126" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="127" ht="15.75" customHeight="1">
@@ -12162,7 +12165,7 @@
         <v>1</v>
       </c>
       <c r="E127" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="128" ht="15.75" customHeight="1">
@@ -12303,7 +12306,7 @@
         <v>1</v>
       </c>
       <c r="E136" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="137" ht="15.75" customHeight="1">
@@ -12320,7 +12323,7 @@
         <v>1</v>
       </c>
       <c r="E137" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="138" ht="15.75" customHeight="1">
@@ -12461,7 +12464,7 @@
         <v>1</v>
       </c>
       <c r="E146" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="147" ht="15.75" customHeight="1">
@@ -12478,7 +12481,7 @@
         <v>1</v>
       </c>
       <c r="E147" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="148" ht="15.75" customHeight="1">
@@ -12619,7 +12622,7 @@
         <v>1</v>
       </c>
       <c r="E156" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="157" ht="15.75" customHeight="1">
@@ -12636,7 +12639,7 @@
         <v>1</v>
       </c>
       <c r="E157" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="158" ht="15.75" customHeight="1">
@@ -12777,7 +12780,7 @@
         <v>1</v>
       </c>
       <c r="E166" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="167" ht="15.75" customHeight="1">
@@ -12794,7 +12797,7 @@
         <v>1</v>
       </c>
       <c r="E167" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="168" ht="15.75" customHeight="1">
@@ -12935,7 +12938,7 @@
         <v>1</v>
       </c>
       <c r="E176" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="177" ht="15.75" customHeight="1">
@@ -12952,7 +12955,7 @@
         <v>1</v>
       </c>
       <c r="E177" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="178" ht="15.75" customHeight="1">
@@ -13093,7 +13096,7 @@
         <v>1</v>
       </c>
       <c r="E186" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="187" ht="15.75" customHeight="1">
@@ -13110,7 +13113,7 @@
         <v>1</v>
       </c>
       <c r="E187" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="188" ht="15.75" customHeight="1">
@@ -13251,7 +13254,7 @@
         <v>1</v>
       </c>
       <c r="E196" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="197" ht="15.75" customHeight="1">
@@ -13268,7 +13271,7 @@
         <v>1</v>
       </c>
       <c r="E197" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="198" ht="15.75" customHeight="1">
@@ -13409,7 +13412,7 @@
         <v>1</v>
       </c>
       <c r="E206" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="207" ht="15.75" customHeight="1">
@@ -13426,7 +13429,7 @@
         <v>1</v>
       </c>
       <c r="E207" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="208" ht="15.75" customHeight="1">
@@ -13567,7 +13570,7 @@
         <v>1</v>
       </c>
       <c r="E216" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="217" ht="15.75" customHeight="1">
@@ -13584,7 +13587,7 @@
         <v>1</v>
       </c>
       <c r="E217" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="218" ht="15.75" customHeight="1">
@@ -13725,7 +13728,7 @@
         <v>1</v>
       </c>
       <c r="E226" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="227" ht="15.75" customHeight="1">
@@ -13742,7 +13745,7 @@
         <v>1</v>
       </c>
       <c r="E227" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="228" ht="15.75" customHeight="1">
@@ -13883,7 +13886,7 @@
         <v>1</v>
       </c>
       <c r="E236" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="237" ht="15.75" customHeight="1">
@@ -13900,7 +13903,7 @@
         <v>1</v>
       </c>
       <c r="E237" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="238" ht="15.75" customHeight="1">
@@ -14011,7 +14014,7 @@
         <v>1</v>
       </c>
       <c r="E244" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="245" ht="15.75" customHeight="1">
@@ -14043,7 +14046,7 @@
         <v>1</v>
       </c>
       <c r="E246" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="247" ht="15.75" customHeight="1">
@@ -14060,7 +14063,7 @@
         <v>1</v>
       </c>
       <c r="E247" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="248" ht="15.75" customHeight="1">
@@ -14201,7 +14204,7 @@
         <v>1</v>
       </c>
       <c r="E256" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="257" ht="15.75" customHeight="1">
@@ -14218,7 +14221,7 @@
         <v>1</v>
       </c>
       <c r="E257" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="258" ht="15.75" customHeight="1">
@@ -14359,7 +14362,7 @@
         <v>1</v>
       </c>
       <c r="E266" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="267" ht="15.75" customHeight="1">
@@ -14376,7 +14379,7 @@
         <v>1</v>
       </c>
       <c r="E267" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="268" ht="15.75" customHeight="1">
@@ -14517,7 +14520,7 @@
         <v>1</v>
       </c>
       <c r="E276" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="277" ht="15.75" customHeight="1">
@@ -14534,7 +14537,7 @@
         <v>1</v>
       </c>
       <c r="E277" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="278" ht="15.75" customHeight="1">
@@ -14675,7 +14678,7 @@
         <v>1</v>
       </c>
       <c r="E286" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="287" ht="15.75" customHeight="1">
@@ -14692,7 +14695,7 @@
         <v>1</v>
       </c>
       <c r="E287" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="288" ht="15.75" customHeight="1">
@@ -14833,7 +14836,7 @@
         <v>1</v>
       </c>
       <c r="E296" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="297" ht="15.75" customHeight="1">
@@ -14850,7 +14853,7 @@
         <v>1</v>
       </c>
       <c r="E297" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="298" ht="15.75" customHeight="1">
@@ -14991,7 +14994,7 @@
         <v>1</v>
       </c>
       <c r="E306" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="307" ht="15.75" customHeight="1">
@@ -15008,7 +15011,7 @@
         <v>1</v>
       </c>
       <c r="E307" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="308" ht="15.75" customHeight="1">
@@ -15149,7 +15152,7 @@
         <v>1</v>
       </c>
       <c r="E316" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="317" ht="15.75" customHeight="1">
@@ -15166,7 +15169,7 @@
         <v>1</v>
       </c>
       <c r="E317" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="318" ht="15.75" customHeight="1">
@@ -15307,7 +15310,7 @@
         <v>1</v>
       </c>
       <c r="E326" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="327" ht="15.75" customHeight="1">
@@ -15324,7 +15327,7 @@
         <v>1</v>
       </c>
       <c r="E327" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="328" ht="15.75" customHeight="1">
@@ -15465,7 +15468,7 @@
         <v>1</v>
       </c>
       <c r="E336" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="337" ht="15.75" customHeight="1">
@@ -15482,7 +15485,7 @@
         <v>1</v>
       </c>
       <c r="E337" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="338" ht="15.75" customHeight="1">
@@ -15623,7 +15626,7 @@
         <v>1</v>
       </c>
       <c r="E346" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="347" ht="15.75" customHeight="1">
@@ -15640,7 +15643,7 @@
         <v>1</v>
       </c>
       <c r="E347" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="348" ht="15.75" customHeight="1">
@@ -15781,7 +15784,7 @@
         <v>1</v>
       </c>
       <c r="E356" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="357" ht="15.75" customHeight="1">
@@ -15798,7 +15801,7 @@
         <v>1</v>
       </c>
       <c r="E357" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="358" ht="15.75" customHeight="1">
@@ -15939,7 +15942,7 @@
         <v>1</v>
       </c>
       <c r="E366" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="367" ht="15.75" customHeight="1">
@@ -15956,7 +15959,7 @@
         <v>1</v>
       </c>
       <c r="E367" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="368" ht="15.75" customHeight="1">
@@ -16097,7 +16100,7 @@
         <v>1</v>
       </c>
       <c r="E376" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="377" ht="15.75" customHeight="1">
@@ -16114,7 +16117,7 @@
         <v>1</v>
       </c>
       <c r="E377" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="378" ht="15.75" customHeight="1">
@@ -16255,7 +16258,7 @@
         <v>1</v>
       </c>
       <c r="E386" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="387" ht="15.75" customHeight="1">
@@ -16272,7 +16275,7 @@
         <v>1</v>
       </c>
       <c r="E387" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="388" ht="15.75" customHeight="1">
@@ -16413,7 +16416,7 @@
         <v>1</v>
       </c>
       <c r="E396" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="397" ht="15.75" customHeight="1">
@@ -16430,7 +16433,7 @@
         <v>1</v>
       </c>
       <c r="E397" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="398" ht="15.75" customHeight="1">
@@ -16571,7 +16574,7 @@
         <v>1</v>
       </c>
       <c r="E406" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="407" ht="15.75" customHeight="1">
@@ -16588,7 +16591,7 @@
         <v>1</v>
       </c>
       <c r="E407" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="408" ht="15.75" customHeight="1">
@@ -16729,7 +16732,7 @@
         <v>1</v>
       </c>
       <c r="E416" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="417" ht="15.75" customHeight="1">
@@ -16746,7 +16749,7 @@
         <v>1</v>
       </c>
       <c r="E417" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="418" ht="15.75" customHeight="1">
@@ -16887,7 +16890,7 @@
         <v>1</v>
       </c>
       <c r="E426" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="427" ht="15.75" customHeight="1">
@@ -16904,7 +16907,7 @@
         <v>1</v>
       </c>
       <c r="E427" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="428" ht="15.75" customHeight="1">
@@ -17045,7 +17048,7 @@
         <v>1</v>
       </c>
       <c r="E436" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="437" ht="15.75" customHeight="1">
@@ -17062,7 +17065,7 @@
         <v>1</v>
       </c>
       <c r="E437" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="438" ht="15.75" customHeight="1">
@@ -17203,7 +17206,7 @@
         <v>1</v>
       </c>
       <c r="E446" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="447" ht="15.75" customHeight="1">
@@ -17220,7 +17223,7 @@
         <v>1</v>
       </c>
       <c r="E447" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="448" ht="15.75" customHeight="1">
@@ -17361,7 +17364,7 @@
         <v>1</v>
       </c>
       <c r="E456" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="457" ht="15.75" customHeight="1">
@@ -17378,7 +17381,7 @@
         <v>1</v>
       </c>
       <c r="E457" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="458" ht="15.75" customHeight="1">
@@ -17519,7 +17522,7 @@
         <v>1</v>
       </c>
       <c r="E466" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="467" ht="15.75" customHeight="1">
@@ -17536,7 +17539,7 @@
         <v>1</v>
       </c>
       <c r="E467" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="468" ht="15.75" customHeight="1">
@@ -17677,7 +17680,7 @@
         <v>1</v>
       </c>
       <c r="E476" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="477" ht="15.75" customHeight="1">
@@ -17694,7 +17697,7 @@
         <v>1</v>
       </c>
       <c r="E477" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="478" ht="15.75" customHeight="1">
@@ -17835,7 +17838,7 @@
         <v>1</v>
       </c>
       <c r="E486" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="487" ht="15.75" customHeight="1">
@@ -17852,7 +17855,7 @@
         <v>1</v>
       </c>
       <c r="E487" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="488" ht="15.75" customHeight="1">
@@ -17993,7 +17996,7 @@
         <v>1</v>
       </c>
       <c r="E496" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="497" ht="15.75" customHeight="1">
@@ -18010,7 +18013,7 @@
         <v>1</v>
       </c>
       <c r="E497" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="498" ht="15.75" customHeight="1">
@@ -18151,7 +18154,7 @@
         <v>1</v>
       </c>
       <c r="E506" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="507" ht="15.75" customHeight="1">
@@ -18168,7 +18171,7 @@
         <v>1</v>
       </c>
       <c r="E507" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="508" ht="15.75" customHeight="1">
@@ -18309,7 +18312,7 @@
         <v>1</v>
       </c>
       <c r="E516" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="517" ht="15.75" customHeight="1">
@@ -18326,7 +18329,7 @@
         <v>1</v>
       </c>
       <c r="E517" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="518" ht="15.75" customHeight="1">
@@ -18467,7 +18470,7 @@
         <v>1</v>
       </c>
       <c r="E526" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="527" ht="15.75" customHeight="1">
@@ -18484,7 +18487,7 @@
         <v>1</v>
       </c>
       <c r="E527" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="528" ht="15.75" customHeight="1">
@@ -18625,7 +18628,7 @@
         <v>1</v>
       </c>
       <c r="E536" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="537" ht="15.75" customHeight="1">
@@ -18642,7 +18645,7 @@
         <v>1</v>
       </c>
       <c r="E537" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="538" ht="15.75" customHeight="1">
@@ -18783,7 +18786,7 @@
         <v>1</v>
       </c>
       <c r="E546" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="547" ht="15.75" customHeight="1">
@@ -18800,7 +18803,7 @@
         <v>1</v>
       </c>
       <c r="E547" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="548" ht="15.75" customHeight="1">
@@ -18941,7 +18944,7 @@
         <v>1</v>
       </c>
       <c r="E556" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="557" ht="15.75" customHeight="1">
@@ -18958,7 +18961,7 @@
         <v>1</v>
       </c>
       <c r="E557" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="558" ht="15.75" customHeight="1">
@@ -19099,7 +19102,7 @@
         <v>1</v>
       </c>
       <c r="E566" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="567" ht="15.75" customHeight="1">
@@ -19116,7 +19119,7 @@
         <v>1</v>
       </c>
       <c r="E567" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="568" ht="15.75" customHeight="1">
@@ -19257,7 +19260,7 @@
         <v>1</v>
       </c>
       <c r="E576" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="577" ht="15.75" customHeight="1">
@@ -19274,7 +19277,7 @@
         <v>1</v>
       </c>
       <c r="E577" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="578" ht="15.75" customHeight="1">
@@ -19415,7 +19418,7 @@
         <v>1</v>
       </c>
       <c r="E586" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="587" ht="15.75" customHeight="1">
@@ -19432,7 +19435,7 @@
         <v>1</v>
       </c>
       <c r="E587" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="588" ht="15.75" customHeight="1">
@@ -19573,7 +19576,7 @@
         <v>1</v>
       </c>
       <c r="E596" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="597" ht="15.75" customHeight="1">
@@ -19590,7 +19593,7 @@
         <v>1</v>
       </c>
       <c r="E597" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="598" ht="15.75" customHeight="1">
@@ -19731,7 +19734,7 @@
         <v>1</v>
       </c>
       <c r="E606" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="607" ht="15.75" customHeight="1">
@@ -19748,7 +19751,7 @@
         <v>1</v>
       </c>
       <c r="E607" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="608" ht="15.75" customHeight="1">
@@ -19889,7 +19892,7 @@
         <v>1</v>
       </c>
       <c r="E616" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="617" ht="15.75" customHeight="1">
@@ -19906,7 +19909,7 @@
         <v>1</v>
       </c>
       <c r="E617" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="618" ht="15.75" customHeight="1">
@@ -20047,7 +20050,7 @@
         <v>1</v>
       </c>
       <c r="E626" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="627" ht="15.75" customHeight="1">
@@ -20064,7 +20067,7 @@
         <v>1</v>
       </c>
       <c r="E627" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="628" ht="15.75" customHeight="1">
@@ -20205,7 +20208,7 @@
         <v>1</v>
       </c>
       <c r="E636" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="637" ht="15.75" customHeight="1">
@@ -20222,7 +20225,7 @@
         <v>1</v>
       </c>
       <c r="E637" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="638" ht="15.75" customHeight="1">
@@ -20363,7 +20366,7 @@
         <v>1</v>
       </c>
       <c r="E646" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="647" ht="15.75" customHeight="1">
@@ -20380,7 +20383,7 @@
         <v>1</v>
       </c>
       <c r="E647" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="648" ht="15.75" customHeight="1">
@@ -20521,7 +20524,7 @@
         <v>1</v>
       </c>
       <c r="E656" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="657" ht="15.75" customHeight="1">
@@ -20538,7 +20541,7 @@
         <v>1</v>
       </c>
       <c r="E657" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="658" ht="15.75" customHeight="1">
@@ -20679,7 +20682,7 @@
         <v>1</v>
       </c>
       <c r="E666" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="667" ht="15.75" customHeight="1">
@@ -20696,7 +20699,7 @@
         <v>1</v>
       </c>
       <c r="E667" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="668" ht="15.75" customHeight="1">
@@ -20837,7 +20840,7 @@
         <v>1</v>
       </c>
       <c r="E676" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="677" ht="15.75" customHeight="1">
@@ -20854,7 +20857,7 @@
         <v>1</v>
       </c>
       <c r="E677" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="678" ht="15.75" customHeight="1">
@@ -20995,7 +20998,7 @@
         <v>1</v>
       </c>
       <c r="E686" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="687" ht="15.75" customHeight="1">
@@ -21012,7 +21015,7 @@
         <v>1</v>
       </c>
       <c r="E687" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="688" ht="15.75" customHeight="1">
@@ -21153,7 +21156,7 @@
         <v>1</v>
       </c>
       <c r="E696" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="697" ht="15.75" customHeight="1">
@@ -21170,7 +21173,7 @@
         <v>1</v>
       </c>
       <c r="E697" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="698" ht="15.75" customHeight="1">
@@ -21311,7 +21314,7 @@
         <v>1</v>
       </c>
       <c r="E706" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="707" ht="15.75" customHeight="1">
@@ -21328,7 +21331,7 @@
         <v>1</v>
       </c>
       <c r="E707" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="708" ht="15.75" customHeight="1">
@@ -21469,7 +21472,7 @@
         <v>1</v>
       </c>
       <c r="E716" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="717" ht="15.75" customHeight="1">
@@ -21486,7 +21489,7 @@
         <v>1</v>
       </c>
       <c r="E717" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="718" ht="15.75" customHeight="1">
@@ -21627,7 +21630,7 @@
         <v>1</v>
       </c>
       <c r="E726" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="727" ht="15.75" customHeight="1">
@@ -21644,7 +21647,7 @@
         <v>1</v>
       </c>
       <c r="E727" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="728" ht="15.75" customHeight="1">
@@ -21785,7 +21788,7 @@
         <v>1</v>
       </c>
       <c r="E736" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="737" ht="15.75" customHeight="1">
@@ -21802,7 +21805,7 @@
         <v>1</v>
       </c>
       <c r="E737" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="738" ht="15.75" customHeight="1">
@@ -21943,7 +21946,7 @@
         <v>1</v>
       </c>
       <c r="E746" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="747" ht="15.75" customHeight="1">
@@ -21960,7 +21963,7 @@
         <v>1</v>
       </c>
       <c r="E747" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="748" ht="15.75" customHeight="1">
@@ -22101,7 +22104,7 @@
         <v>1</v>
       </c>
       <c r="E756" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="757" ht="15.75" customHeight="1">
@@ -22118,7 +22121,7 @@
         <v>1</v>
       </c>
       <c r="E757" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="758" ht="15.75" customHeight="1">
@@ -22259,7 +22262,7 @@
         <v>1</v>
       </c>
       <c r="E766" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="767" ht="15.75" customHeight="1">
@@ -22276,7 +22279,7 @@
         <v>1</v>
       </c>
       <c r="E767" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="768" ht="15.75" customHeight="1">
@@ -22417,7 +22420,7 @@
         <v>1</v>
       </c>
       <c r="E776" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="777" ht="15.75" customHeight="1">
@@ -22434,7 +22437,7 @@
         <v>1</v>
       </c>
       <c r="E777" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="778" ht="15.75" customHeight="1">
@@ -22575,7 +22578,7 @@
         <v>1</v>
       </c>
       <c r="E786" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="787" ht="15.75" customHeight="1">
@@ -22592,7 +22595,7 @@
         <v>1</v>
       </c>
       <c r="E787" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="788" ht="15.75" customHeight="1">
@@ -22733,7 +22736,7 @@
         <v>1</v>
       </c>
       <c r="E796" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="797" ht="15.75" customHeight="1">
@@ -22750,7 +22753,7 @@
         <v>1</v>
       </c>
       <c r="E797" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="798" ht="15.75" customHeight="1">
@@ -22891,7 +22894,7 @@
         <v>1</v>
       </c>
       <c r="E806" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="807" ht="15.75" customHeight="1">
@@ -22908,7 +22911,7 @@
         <v>1</v>
       </c>
       <c r="E807" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="808" ht="15.75" customHeight="1">
@@ -23019,7 +23022,7 @@
         <v>1</v>
       </c>
       <c r="E814" t="s">
-        <v>1646</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="815" ht="15.75" customHeight="1">
